--- a/natmiOut/OldD2/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H2">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I2">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J2">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>0.2330860773091584</v>
+        <v>0.5900779226839999</v>
       </c>
       <c r="R2">
-        <v>0.2330860773091584</v>
+        <v>3.540467536103999</v>
       </c>
       <c r="S2">
-        <v>0.002800562826419461</v>
+        <v>0.003360864258635876</v>
       </c>
       <c r="T2">
-        <v>0.002800562826419461</v>
+        <v>0.002838225013104015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H3">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I3">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J3">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>19.53215914411191</v>
+        <v>51.88235339529</v>
       </c>
       <c r="R3">
-        <v>19.53215914411191</v>
+        <v>466.94118055761</v>
       </c>
       <c r="S3">
-        <v>0.2346817083637088</v>
+        <v>0.2955025776714658</v>
       </c>
       <c r="T3">
-        <v>0.2346817083637088</v>
+        <v>0.3743246124395468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H4">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I4">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J4">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>0.1658458138997055</v>
+        <v>0.4195378360946667</v>
       </c>
       <c r="R4">
-        <v>0.1658458138997055</v>
+        <v>3.775840524852</v>
       </c>
       <c r="S4">
-        <v>0.001992661366507735</v>
+        <v>0.002389531389451921</v>
       </c>
       <c r="T4">
-        <v>0.001992661366507735</v>
+        <v>0.003026912382006923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H5">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I5">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J5">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>0.1182758571168725</v>
+        <v>0.2942371190426667</v>
       </c>
       <c r="R5">
-        <v>0.1182758571168725</v>
+        <v>2.648134071384</v>
       </c>
       <c r="S5">
-        <v>0.001421101476880867</v>
+        <v>0.001675865133974961</v>
       </c>
       <c r="T5">
-        <v>0.001421101476880867</v>
+        <v>0.002122883569136126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H6">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I6">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J6">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>0.3800288544697408</v>
+        <v>1.065587664955333</v>
       </c>
       <c r="R6">
-        <v>0.3800288544697408</v>
+        <v>9.590288984597999</v>
       </c>
       <c r="S6">
-        <v>0.004566101480969535</v>
+        <v>0.006069190796534011</v>
       </c>
       <c r="T6">
-        <v>0.004566101480969535</v>
+        <v>0.007688080119761445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.418580490219693</v>
+        <v>1.035526</v>
       </c>
       <c r="H7">
-        <v>0.418580490219693</v>
+        <v>3.106578</v>
       </c>
       <c r="I7">
-        <v>0.3473538443588975</v>
+        <v>0.4381485279869601</v>
       </c>
       <c r="J7">
-        <v>0.3473538443588975</v>
+        <v>0.4990673546495796</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>8.480273501035725</v>
+        <v>22.675375184359</v>
       </c>
       <c r="R7">
-        <v>8.480273501035725</v>
+        <v>136.052251106154</v>
       </c>
       <c r="S7">
-        <v>0.1018917088444111</v>
+        <v>0.1291504987368975</v>
       </c>
       <c r="T7">
-        <v>0.1018917088444111</v>
+        <v>0.1090666411260244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.786474519297351</v>
+        <v>0.4624146666666666</v>
       </c>
       <c r="H8">
-        <v>0.786474519297351</v>
+        <v>1.387244</v>
       </c>
       <c r="I8">
-        <v>0.6526461556411025</v>
+        <v>0.195655450002782</v>
       </c>
       <c r="J8">
-        <v>0.6526461556411025</v>
+        <v>0.2228587833086765</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>0.4379474554832013</v>
+        <v>0.2634995991653333</v>
       </c>
       <c r="R8">
-        <v>0.4379474554832013</v>
+        <v>1.580997594992</v>
       </c>
       <c r="S8">
-        <v>0.005262001823148163</v>
+        <v>0.001500795659277529</v>
       </c>
       <c r="T8">
-        <v>0.005262001823148163</v>
+        <v>0.001267410835999761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.786474519297351</v>
+        <v>0.4624146666666666</v>
       </c>
       <c r="H9">
-        <v>0.786474519297351</v>
+        <v>1.387244</v>
       </c>
       <c r="I9">
-        <v>0.6526461556411025</v>
+        <v>0.195655450002782</v>
       </c>
       <c r="J9">
-        <v>0.6526461556411025</v>
+        <v>0.2228587833086765</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>36.69914349243136</v>
+        <v>23.16809153142</v>
       </c>
       <c r="R9">
-        <v>36.69914349243136</v>
+        <v>208.51282378278</v>
       </c>
       <c r="S9">
-        <v>0.4409455005328994</v>
+        <v>0.1319568276924883</v>
       </c>
       <c r="T9">
-        <v>0.4409455005328994</v>
+        <v>0.1671548477646744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.786474519297351</v>
+        <v>0.4624146666666666</v>
       </c>
       <c r="H10">
-        <v>0.786474519297351</v>
+        <v>1.387244</v>
       </c>
       <c r="I10">
-        <v>0.6526461556411025</v>
+        <v>0.195655450002782</v>
       </c>
       <c r="J10">
-        <v>0.6526461556411025</v>
+        <v>0.2228587833086765</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>0.3116091404446263</v>
+        <v>0.1873448359884445</v>
       </c>
       <c r="R10">
-        <v>0.3116091404446263</v>
+        <v>1.686103523896</v>
       </c>
       <c r="S10">
-        <v>0.003744028751851375</v>
+        <v>0.001067046468116635</v>
       </c>
       <c r="T10">
-        <v>0.003744028751851375</v>
+        <v>0.001351669277405818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.786474519297351</v>
+        <v>0.4624146666666666</v>
       </c>
       <c r="H11">
-        <v>0.786474519297351</v>
+        <v>1.387244</v>
       </c>
       <c r="I11">
-        <v>0.6526461556411025</v>
+        <v>0.195655450002782</v>
       </c>
       <c r="J11">
-        <v>0.6526461556411025</v>
+        <v>0.2228587833086765</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>0.222229535403459</v>
+        <v>0.1313917364924445</v>
       </c>
       <c r="R11">
-        <v>0.222229535403459</v>
+        <v>1.182525628432</v>
       </c>
       <c r="S11">
-        <v>0.002670119910070411</v>
+        <v>0.0007483584355248639</v>
       </c>
       <c r="T11">
-        <v>0.002670119910070411</v>
+        <v>0.0009479747471277641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.786474519297351</v>
+        <v>0.4624146666666666</v>
       </c>
       <c r="H12">
-        <v>0.786474519297351</v>
+        <v>1.387244</v>
       </c>
       <c r="I12">
-        <v>0.6526461556411025</v>
+        <v>0.195655450002782</v>
       </c>
       <c r="J12">
-        <v>0.6526461556411025</v>
+        <v>0.2228587833086765</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>0.7140395159873383</v>
+        <v>0.4758387185782222</v>
       </c>
       <c r="R12">
-        <v>0.7140395159873383</v>
+        <v>4.282548467204</v>
       </c>
       <c r="S12">
-        <v>0.008579287738479227</v>
+        <v>0.002710200264518395</v>
       </c>
       <c r="T12">
-        <v>0.008579287738479227</v>
+        <v>0.003433116122517557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4624146666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.387244</v>
+      </c>
+      <c r="I13">
+        <v>0.195655450002782</v>
+      </c>
+      <c r="J13">
+        <v>0.2228587833086765</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.8974465</v>
+      </c>
+      <c r="N13">
+        <v>43.794893</v>
+      </c>
+      <c r="O13">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P13">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q13">
+        <v>10.12570042414867</v>
+      </c>
+      <c r="R13">
+        <v>60.754202544892</v>
+      </c>
+      <c r="S13">
+        <v>0.05767222148285627</v>
+      </c>
+      <c r="T13">
+        <v>0.04870376456095117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8654725</v>
+      </c>
+      <c r="H14">
+        <v>1.730945</v>
+      </c>
+      <c r="I14">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J14">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.569834</v>
+      </c>
+      <c r="N14">
+        <v>1.139668</v>
+      </c>
+      <c r="O14">
+        <v>0.007670604929513537</v>
+      </c>
+      <c r="P14">
+        <v>0.005687058042690201</v>
+      </c>
+      <c r="Q14">
+        <v>0.493175656565</v>
+      </c>
+      <c r="R14">
+        <v>1.97270262626</v>
+      </c>
+      <c r="S14">
+        <v>0.002808945011600132</v>
+      </c>
+      <c r="T14">
+        <v>0.001581422193586425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8654725</v>
+      </c>
+      <c r="H15">
+        <v>1.730945</v>
+      </c>
+      <c r="I15">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J15">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.102415</v>
+      </c>
+      <c r="N15">
+        <v>150.307245</v>
+      </c>
+      <c r="O15">
+        <v>0.6744347151618419</v>
+      </c>
+      <c r="P15">
+        <v>0.7500482829664925</v>
+      </c>
+      <c r="Q15">
+        <v>43.3622623660875</v>
+      </c>
+      <c r="R15">
+        <v>260.173574196525</v>
+      </c>
+      <c r="S15">
+        <v>0.2469753097978879</v>
+      </c>
+      <c r="T15">
+        <v>0.2085688227622713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8654725</v>
+      </c>
+      <c r="H16">
+        <v>1.730945</v>
+      </c>
+      <c r="I16">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J16">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4051446666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.215434</v>
+      </c>
+      <c r="O16">
+        <v>0.005453701739979455</v>
+      </c>
+      <c r="P16">
+        <v>0.006065138009542361</v>
+      </c>
+      <c r="Q16">
+        <v>0.3506415675216667</v>
+      </c>
+      <c r="R16">
+        <v>2.10384940513</v>
+      </c>
+      <c r="S16">
+        <v>0.001997123882410899</v>
+      </c>
+      <c r="T16">
+        <v>0.00168655635012962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.786474519297351</v>
-      </c>
-      <c r="H13">
-        <v>0.786474519297351</v>
-      </c>
-      <c r="I13">
-        <v>0.6526461556411025</v>
-      </c>
-      <c r="J13">
-        <v>0.6526461556411025</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="N13">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="O13">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="P13">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="Q13">
-        <v>15.93365954953281</v>
-      </c>
-      <c r="R13">
-        <v>15.93365954953281</v>
-      </c>
-      <c r="S13">
-        <v>0.1914452168846539</v>
-      </c>
-      <c r="T13">
-        <v>0.1914452168846539</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8654725</v>
+      </c>
+      <c r="H17">
+        <v>1.730945</v>
+      </c>
+      <c r="I17">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J17">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2841426666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.8524280000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.00382487906937539</v>
+      </c>
+      <c r="P17">
+        <v>0.004253701528176911</v>
+      </c>
+      <c r="Q17">
+        <v>0.2459176640766667</v>
+      </c>
+      <c r="R17">
+        <v>1.47550598446</v>
+      </c>
+      <c r="S17">
+        <v>0.001400655499875565</v>
+      </c>
+      <c r="T17">
+        <v>0.001182843211913022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8654725</v>
+      </c>
+      <c r="H18">
+        <v>1.730945</v>
+      </c>
+      <c r="I18">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J18">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.029030333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.087091</v>
+      </c>
+      <c r="O18">
+        <v>0.01385190274270336</v>
+      </c>
+      <c r="P18">
+        <v>0.01540489484662774</v>
+      </c>
+      <c r="Q18">
+        <v>0.8905974551658332</v>
+      </c>
+      <c r="R18">
+        <v>5.343584730995</v>
+      </c>
+      <c r="S18">
+        <v>0.005072511681650951</v>
+      </c>
+      <c r="T18">
+        <v>0.004283698604348732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8654725</v>
+      </c>
+      <c r="H19">
+        <v>1.730945</v>
+      </c>
+      <c r="I19">
+        <v>0.3661960220102579</v>
+      </c>
+      <c r="J19">
+        <v>0.2780738620417439</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.8974465</v>
+      </c>
+      <c r="N19">
+        <v>43.794893</v>
+      </c>
+      <c r="O19">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P19">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q19">
+        <v>18.95163776597125</v>
+      </c>
+      <c r="R19">
+        <v>75.806551063885</v>
+      </c>
+      <c r="S19">
+        <v>0.1079414761368324</v>
+      </c>
+      <c r="T19">
+        <v>0.06077051891949479</v>
       </c>
     </row>
   </sheetData>
